--- a/Diseño/Chile/Aplicaciones.xlsx
+++ b/Diseño/Chile/Aplicaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Diseño\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96816F-18FB-4777-8BB3-24CEFC012014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5ACE5-120C-413A-8B57-B47A45439EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9DF657B-7FA0-4371-A454-0808398948B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="212">
   <si>
     <t>NDVI</t>
   </si>
@@ -620,6 +620,60 @@
   </si>
   <si>
     <t>Monitoreo de verdor. Permite evaluar; i) captación de agua y nitrógeno por el cultivo y ii) vegetación con estrés y vegetación envejecida. Es más sensible a la concentración de clorofila que el NDVI</t>
+  </si>
+  <si>
+    <t>NDGI</t>
+  </si>
+  <si>
+    <t>Normalized Difference Glacier Index (Indice Glaciar Diferencial Normalizado</t>
+  </si>
+  <si>
+    <t>Fórmula del NDGI = (NIR-Green)/(NIR+Green)</t>
+  </si>
+  <si>
+    <t>Glaciar</t>
+  </si>
+  <si>
+    <t>e utiliza para ayudar a detectar y monitorear glaciares utilizando las bandas espectrales verde y roja. Esta ecuación se utiliza comúnmente en la detección de glaciares y en aplicaciones de monitoreo de glaciares (Bluemarblegeo, 2019).</t>
+  </si>
+  <si>
+    <t>Monitoreo de glaciares</t>
+  </si>
+  <si>
+    <t>Nieve</t>
+  </si>
+  <si>
+    <t>NDSI</t>
+  </si>
+  <si>
+    <t>Normalized Difference Snow Index (Indice Diferencial Normalizado de Nieve)</t>
+  </si>
+  <si>
+    <t>indicador numérico que muestra la cobertura de nieve en áreas terrestres. Las bandas espectrales de infrarrojos verdes y de onda corta (SWIR) se utilizan dentro de esta fórmula para trazar el mapa de la cubierta de nieve. Dado que la nieve absorbe la mayor parte de la radiación incidente en el SWIR mientras que las nubes no lo hacen, esto permite a NDSI distinguir la nieve de las nubes. </t>
+  </si>
+  <si>
+    <t>Monitoreo de cobertura de nieve, hielo y glaciares</t>
+  </si>
+  <si>
+    <t>Fórmula del NDSI = (Green-SWIR) / (Green+SWIR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planta </t>
+  </si>
+  <si>
+    <t>ARVI</t>
+  </si>
+  <si>
+    <t>Índice de Vegetación Atmosféricamente Resistente</t>
+  </si>
+  <si>
+    <t>es el primer índice de vegetación, que es relativamente propenso a factores atmosféricos (como el aerosol). La fórmula del índice ARVI inventada por Kaufman y Tanré es básicamente NDVI corregida para los efectos de dispersión atmosférica en el espectro de reflectancia rojo utilizando las medidas en longitudes de onda azules</t>
+  </si>
+  <si>
+    <t>ARVI = (NIR – (2 * Red) + Blue) / (NIR + (2 * Red) + Blue)</t>
+  </si>
+  <si>
+    <t>Vegetación</t>
   </si>
 </sst>
 </file>
@@ -944,16 +998,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC792F38-4679-4FDC-B68A-907F53771BBF}" name="Tabla1" displayName="Tabla1" ref="A3:M36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0">
-  <autoFilter ref="A3:M36" xr:uid="{E0447808-DBFD-4AFC-9175-44F62D038181}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Agronómico"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M36">
-    <sortCondition ref="A4:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC792F38-4679-4FDC-B68A-907F53771BBF}" name="Tabla1" displayName="Tabla1" ref="A3:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0">
+  <autoFilter ref="A3:M39" xr:uid="{E0447808-DBFD-4AFC-9175-44F62D038181}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M37">
+    <sortCondition ref="A4:A37"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9DB26C16-7428-4674-9F5A-8D8F252E666B}" name="Categoría indice" dataDxfId="13"/>
@@ -1271,15 +1319,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F8FFA-28BD-4FE8-8F32-6ED124BA8954}">
-  <dimension ref="A3:M36"/>
+  <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
@@ -1288,6 +1336,7 @@
     <col min="7" max="7" width="46.36328125" customWidth="1"/>
     <col min="8" max="8" width="63.7265625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" customWidth="1"/>
     <col min="12" max="12" width="27.453125" customWidth="1"/>
     <col min="13" max="13" width="24.26953125" customWidth="1"/>
   </cols>
@@ -1333,7 +1382,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="47.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
@@ -1407,7 +1456,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>186</v>
       </c>
@@ -1415,36 +1464,32 @@
         <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="M6" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>186</v>
       </c>
@@ -1455,33 +1500,33 @@
         <v>187</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>90</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>186</v>
       </c>
@@ -1489,21 +1534,23 @@
         <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
         <v>90</v>
@@ -1511,12 +1558,12 @@
       <c r="K8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="L8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>186</v>
       </c>
@@ -1527,16 +1574,16 @@
         <v>123</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1546,327 +1593,329 @@
       <c r="K9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>170</v>
+        <v>92</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="M10" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>120</v>
+        <v>93</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="M11" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="62" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="L15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>121</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>188</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>186</v>
       </c>
@@ -1877,20 +1926,20 @@
         <v>123</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>182</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="s">
@@ -1899,73 +1948,71 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>137</v>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1973,52 +2020,54 @@
         <v>89</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2036,22 +2085,22 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2064,42 +2113,42 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="K25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>137</v>
@@ -2108,19 +2157,21 @@
         <v>125</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
         <v>74</v>
@@ -2128,96 +2179,96 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -2227,30 +2278,28 @@
         <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L30" s="5"/>
-      <c r="M30" s="5" t="s">
-        <v>178</v>
-      </c>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -2260,19 +2309,19 @@
         <v>89</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2281,102 +2330,104 @@
         <v>75</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" ht="62" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
@@ -2387,56 +2438,153 @@
         <v>125</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="31" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
